--- a/HV_Board_Rev3/lt3001_eval/Release/BOM/Bill of Materials-lt3001_eval.xlsx
+++ b/HV_Board_Rev3/lt3001_eval/Release/BOM/Bill of Materials-lt3001_eval.xlsx
@@ -36,7 +36,7 @@
     <t>CAP CER 22UF 10V X5R 0603</t>
   </si>
   <si>
-    <t>C1, C2</t>
+    <t>C1, C2, C3</t>
   </si>
   <si>
     <t>CL10A226MP8NUNE</t>
@@ -45,7 +45,7 @@
     <t>CAP CER 4.7UF 25V X5R 0805</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>C4</t>
   </si>
   <si>
     <t>CL21A475KAQNNNE</t>
@@ -385,54 +385,6 @@
     <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
     <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="52" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="58" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="60" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,9 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
@@ -464,181 +414,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43">
-        <v>2</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="21">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="17">
         <v>7</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="17">
         <v>4</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="17">
         <v>1</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape" blackAndWhite="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -646,17 +592,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <sheetData/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape" blackAndWhite="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -664,8 +606,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <sheetData/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape" blackAndWhite="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>